--- a/Benchmark-Models/Hass_PONE2017/Data/model1_data4.xlsx
+++ b/Benchmark-Models/Hass_PONE2017/Data/model1_data4.xlsx
@@ -282,13 +282,13 @@
         <v>15.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.31186964712062853</v>
+        <v>0.31191075770308613</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8805499038699115</v>
+        <v>-0.8812640366878717</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1563924594418597</v>
+        <v>0.15637275538685838</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
